--- a/multi_scale_model/result/flux_rate/result.xlsx
+++ b/multi_scale_model/result/flux_rate/result.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\PycharmProjects\MultiScaleModel\multi_scale_model\result\flux_rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3AA69-2980-461E-9284-2D4A3002CDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A66FD4-AFF3-4203-AD1A-D2DDE24820DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{84EB8F38-0444-4A55-BABB-50B36C6D9563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="no-sum" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="no-sum" sheetId="7" r:id="rId2"/>
+    <sheet name="no-sum-old" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="54">
   <si>
     <t>Process Time</t>
   </si>
@@ -216,9 +217,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -407,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3163,11 +3168,2366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E62C4-21F5-484B-85D0-9EC636E1ACE0}">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
+        <v>120</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12">
+        <v>240</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
+        <v>360</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="17">
+        <v>60</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17">
+        <v>120</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17">
+        <v>240</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1460.6237952704</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1425.1647014088301</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1460.62379527758</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1349.81553087661</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1460.62389880008</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1134.30668480854</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1460.8544630650799</v>
+      </c>
+      <c r="I4" s="13">
+        <v>927.78465699111905</v>
+      </c>
+      <c r="J4" s="18">
+        <v>958.79802663152896</v>
+      </c>
+      <c r="K4" s="18">
+        <v>950.99373502379001</v>
+      </c>
+      <c r="L4" s="18">
+        <v>958.79802663227997</v>
+      </c>
+      <c r="M4" s="18">
+        <v>930.32020577532501</v>
+      </c>
+      <c r="N4" s="18">
+        <v>958.79803759896004</v>
+      </c>
+      <c r="O4" s="18">
+        <v>834.98207056879903</v>
+      </c>
+      <c r="P4" s="18">
+        <v>958.822501478905</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>691.52188889482397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1202.5853347095799</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1193.2603894870699</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1202.5853347069401</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1171.1411096084701</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1202.5852966457601</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1085.16596613147</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1202.50050851382</v>
+      </c>
+      <c r="I5" s="14">
+        <v>881.99570727019204</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1152.6681443349501</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1134.01967436411</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1152.66814433437</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1088.3413809292001</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1152.6681358532801</v>
+      </c>
+      <c r="O5" s="19">
+        <v>913.22996808093399</v>
+      </c>
+      <c r="P5" s="19">
+        <v>1152.6492158806</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>713.28197465922199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1177.5011351333601</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1169.23045186587</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1177.5011351291901</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1149.70524086962</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1177.5010751208399</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1074.25543943813</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1177.3677628535399</v>
+      </c>
+      <c r="I6" s="14">
+        <v>864.46931497407797</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1176.09802579905</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1158.29810018986</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1176.0980257983899</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1114.1604429069901</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1176.0980161703001</v>
+      </c>
+      <c r="O6" s="19">
+        <v>937.12860001191098</v>
+      </c>
+      <c r="P6" s="19">
+        <v>1176.07654194101</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>725.61833671140698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2282.11857146801</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2267.9192556154198</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2282.1185714568701</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2234.48004654332</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2282.1184115409201</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2105.1126583678702</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2281.7618509833001</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1679.23084271077</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2382.1150231008</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2348.26811324349</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2382.1150230993098</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2263.4366268983699</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2382.1150015568801</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1908.7497833380501</v>
+      </c>
+      <c r="P7" s="19">
+        <v>2382.0669530996802</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>1466.68509172274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2175.7093033402298</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2164.0881818383</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2175.7093033261599</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2136.8344481938202</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2175.7091016323702</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2031.5142934780399</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2175.2599990270901</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1607.2864157158299</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2407.83686730112</v>
+      </c>
+      <c r="K8" s="19">
+        <v>2376.51971338872</v>
+      </c>
+      <c r="L8" s="19">
+        <v>2407.8368672994202</v>
+      </c>
+      <c r="M8" s="19">
+        <v>2297.1583115428102</v>
+      </c>
+      <c r="N8" s="19">
+        <v>2407.8368426566599</v>
+      </c>
+      <c r="O8" s="19">
+        <v>1947.74239694835</v>
+      </c>
+      <c r="P8" s="19">
+        <v>2407.7819025148101</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>1483.59269579138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2077.2645117654001</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2065.21681257308</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2077.26451175071</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2035.6528359865999</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2077.2643013769002</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1920.71857820479</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2076.7987631962601</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1536.5254702494001</v>
+      </c>
+      <c r="J9" s="19">
+        <v>2413.8258079244201</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2384.4782446603499</v>
+      </c>
+      <c r="L9" s="19">
+        <v>2413.82580785133</v>
+      </c>
+      <c r="M9" s="19">
+        <v>2311.4279625443601</v>
+      </c>
+      <c r="N9" s="19">
+        <v>2413.8278482062601</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1983.97218191658</v>
+      </c>
+      <c r="P9" s="19">
+        <v>2419.50465569875</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1542.1539663018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="14">
+        <v>80.418171330802394</v>
+      </c>
+      <c r="C10" s="14">
+        <v>80.821862318723504</v>
+      </c>
+      <c r="D10" s="14">
+        <v>80.4181713303864</v>
+      </c>
+      <c r="E10" s="14">
+        <v>81.0585925906516</v>
+      </c>
+      <c r="F10" s="14">
+        <v>80.418165390313106</v>
+      </c>
+      <c r="G10" s="14">
+        <v>79.500542567248303</v>
+      </c>
+      <c r="H10" s="14">
+        <v>80.4050428847831</v>
+      </c>
+      <c r="I10" s="14">
+        <v>69.000345763898494</v>
+      </c>
+      <c r="J10" s="19">
+        <v>94.822405111694295</v>
+      </c>
+      <c r="K10" s="19">
+        <v>94.629868868598095</v>
+      </c>
+      <c r="L10" s="19">
+        <v>94.822405111954595</v>
+      </c>
+      <c r="M10" s="19">
+        <v>93.961216831206301</v>
+      </c>
+      <c r="N10" s="19">
+        <v>94.822395186282506</v>
+      </c>
+      <c r="O10" s="19">
+        <v>87.3132666289181</v>
+      </c>
+      <c r="P10" s="19">
+        <v>94.795099633224396</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>69.512949547402997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13">
+        <v>92.289616834841993</v>
+      </c>
+      <c r="C11" s="13">
+        <v>85.595553934615296</v>
+      </c>
+      <c r="D11" s="13">
+        <v>92.289616834841993</v>
+      </c>
+      <c r="E11" s="13">
+        <v>69.140336122902298</v>
+      </c>
+      <c r="F11" s="13">
+        <v>92.289616834841993</v>
+      </c>
+      <c r="G11" s="13">
+        <v>15.402073713824899</v>
+      </c>
+      <c r="H11" s="13">
+        <v>92.289616834841993</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.266213655197726</v>
+      </c>
+      <c r="J11" s="18">
+        <v>19.705378655616599</v>
+      </c>
+      <c r="K11" s="18">
+        <v>16.056535674323101</v>
+      </c>
+      <c r="L11" s="18">
+        <v>19.705378655616599</v>
+      </c>
+      <c r="M11" s="18">
+        <v>9.5199862316789794</v>
+      </c>
+      <c r="N11" s="18">
+        <v>19.705378655616599</v>
+      </c>
+      <c r="O11" s="18">
+        <v>1.04938228283346</v>
+      </c>
+      <c r="P11" s="18">
+        <v>19.705378655616599</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>2.6904354148277299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2353.5547114370102</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2364.74886424329</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2353.5547114240799</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2370.19949690563</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2353.5545266909098</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2319.6135912759701</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2353.14639598035</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2002.84248891005</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2803.66315844155</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2794.6310359117401</v>
+      </c>
+      <c r="L12" s="18">
+        <v>2803.66315844064</v>
+      </c>
+      <c r="M12" s="18">
+        <v>2767.5061881255401</v>
+      </c>
+      <c r="N12" s="18">
+        <v>2803.6631055062599</v>
+      </c>
+      <c r="O12" s="18">
+        <v>2550.4854192930502</v>
+      </c>
+      <c r="P12" s="18">
+        <v>2803.5295363503901</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>2017.8416514985599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13">
+        <v>478.278050325408</v>
+      </c>
+      <c r="C13" s="13">
+        <v>498.89978714461699</v>
+      </c>
+      <c r="D13" s="13">
+        <v>478.278050325408</v>
+      </c>
+      <c r="E13" s="13">
+        <v>527.26547126523997</v>
+      </c>
+      <c r="F13" s="13">
+        <v>478.278050325408</v>
+      </c>
+      <c r="G13" s="13">
+        <v>563.52384439614605</v>
+      </c>
+      <c r="H13" s="13">
+        <v>478.278050325408</v>
+      </c>
+      <c r="I13" s="13">
+        <v>578.95200116200795</v>
+      </c>
+      <c r="J13" s="18">
+        <v>568.73222800918995</v>
+      </c>
+      <c r="K13" s="18">
+        <v>570.48619798362802</v>
+      </c>
+      <c r="L13" s="18">
+        <v>568.73222800918995</v>
+      </c>
+      <c r="M13" s="18">
+        <v>573.85786481043999</v>
+      </c>
+      <c r="N13" s="18">
+        <v>568.73222800918995</v>
+      </c>
+      <c r="O13" s="18">
+        <v>581.27788297955499</v>
+      </c>
+      <c r="P13" s="18">
+        <v>568.73222800918995</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>586.22387032965605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="14">
+        <v>10.1498694317795</v>
+      </c>
+      <c r="C14" s="14">
+        <v>10.0711665125477</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10.1498694317572</v>
+      </c>
+      <c r="E14" s="14">
+        <v>9.8844788853058905</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10.149869110519299</v>
+      </c>
+      <c r="G14" s="14">
+        <v>9.1588451564688693</v>
+      </c>
+      <c r="H14" s="14">
+        <v>10.1491534952164</v>
+      </c>
+      <c r="I14" s="14">
+        <v>7.4440798584529304</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9.7285663025291402</v>
+      </c>
+      <c r="K14" s="19">
+        <v>9.5711724529257491</v>
+      </c>
+      <c r="L14" s="19">
+        <v>9.7285663025242393</v>
+      </c>
+      <c r="M14" s="19">
+        <v>9.1856457872918504</v>
+      </c>
+      <c r="N14" s="19">
+        <v>9.7285662309435192</v>
+      </c>
+      <c r="O14" s="19">
+        <v>7.7076982977246402</v>
+      </c>
+      <c r="P14" s="19">
+        <v>9.7284065455999098</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>6.0201290518658501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3.2723013950872799</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3.2476265930716202</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3.2723013950718798</v>
+      </c>
+      <c r="E15" s="14">
+        <v>3.1897557811864101</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3.27230117392627</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2.9710093451642101</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3.2718078883719302</v>
+      </c>
+      <c r="I15" s="14">
+        <v>2.2617736997377098</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3.2864001852439801</v>
+      </c>
+      <c r="K15" s="19">
+        <v>3.2375528669410301</v>
+      </c>
+      <c r="L15" s="19">
+        <v>3.28640018524219</v>
+      </c>
+      <c r="M15" s="19">
+        <v>3.1171617005921899</v>
+      </c>
+      <c r="N15" s="19">
+        <v>3.2864001593263499</v>
+      </c>
+      <c r="O15" s="19">
+        <v>2.6380645281577699</v>
+      </c>
+      <c r="P15" s="19">
+        <v>3.2863423355924501</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>2.04833468749551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="14">
+        <v>139.79279069295799</v>
+      </c>
+      <c r="C16" s="14">
+        <v>138.98202177932899</v>
+      </c>
+      <c r="D16" s="14">
+        <v>139.792790691969</v>
+      </c>
+      <c r="E16" s="14">
+        <v>136.992467359274</v>
+      </c>
+      <c r="F16" s="14">
+        <v>139.79277653453201</v>
+      </c>
+      <c r="G16" s="14">
+        <v>129.257785256663</v>
+      </c>
+      <c r="H16" s="14">
+        <v>139.76144740861801</v>
+      </c>
+      <c r="I16" s="14">
+        <v>103.40290427165</v>
+      </c>
+      <c r="J16" s="19">
+        <v>162.442213798599</v>
+      </c>
+      <c r="K16" s="19">
+        <v>160.46722325431099</v>
+      </c>
+      <c r="L16" s="19">
+        <v>162.44221379368099</v>
+      </c>
+      <c r="M16" s="19">
+        <v>155.551189335635</v>
+      </c>
+      <c r="N16" s="19">
+        <v>162.44235110258299</v>
+      </c>
+      <c r="O16" s="19">
+        <v>133.51453625499499</v>
+      </c>
+      <c r="P16" s="19">
+        <v>162.82438081382401</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>103.781682788354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14">
+        <v>127.09573370642801</v>
+      </c>
+      <c r="C17" s="14">
+        <v>126.534214065564</v>
+      </c>
+      <c r="D17" s="14">
+        <v>127.09573370533199</v>
+      </c>
+      <c r="E17" s="14">
+        <v>125.097868537419</v>
+      </c>
+      <c r="F17" s="14">
+        <v>127.095717855724</v>
+      </c>
+      <c r="G17" s="14">
+        <v>119.2391848021</v>
+      </c>
+      <c r="H17" s="14">
+        <v>127.060847448628</v>
+      </c>
+      <c r="I17" s="14">
+        <v>101.815553618019</v>
+      </c>
+      <c r="J17" s="19">
+        <v>163.87702175197299</v>
+      </c>
+      <c r="K17" s="19">
+        <v>162.14298728014501</v>
+      </c>
+      <c r="L17" s="19">
+        <v>163.877021752167</v>
+      </c>
+      <c r="M17" s="19">
+        <v>157.841509278069</v>
+      </c>
+      <c r="N17" s="19">
+        <v>163.87700747082701</v>
+      </c>
+      <c r="O17" s="19">
+        <v>138.471244926249</v>
+      </c>
+      <c r="P17" s="19">
+        <v>163.83906419002</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>104.269444173262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14">
+        <v>36.0218090758922</v>
+      </c>
+      <c r="C18" s="14">
+        <v>35.858950812993598</v>
+      </c>
+      <c r="D18" s="14">
+        <v>36.021809075568903</v>
+      </c>
+      <c r="E18" s="14">
+        <v>35.454620135611002</v>
+      </c>
+      <c r="F18" s="14">
+        <v>36.021804368237603</v>
+      </c>
+      <c r="G18" s="14">
+        <v>33.814965461598902</v>
+      </c>
+      <c r="H18" s="14">
+        <v>36.011444488876101</v>
+      </c>
+      <c r="I18" s="14">
+        <v>29.332746026678901</v>
+      </c>
+      <c r="J18" s="19">
+        <v>47.1964095224657</v>
+      </c>
+      <c r="K18" s="19">
+        <v>46.702224404207897</v>
+      </c>
+      <c r="L18" s="19">
+        <v>47.196409520896701</v>
+      </c>
+      <c r="M18" s="19">
+        <v>45.488263432387299</v>
+      </c>
+      <c r="N18" s="19">
+        <v>47.196452359690603</v>
+      </c>
+      <c r="O18" s="19">
+        <v>40.0891459657173</v>
+      </c>
+      <c r="P18" s="19">
+        <v>47.316873559977601</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>31.191954289265599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14">
+        <v>5.55617160130139</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5.4928167568094599</v>
+      </c>
+      <c r="D19" s="14">
+        <v>5.55617160124726</v>
+      </c>
+      <c r="E19" s="14">
+        <v>5.3922458390166996</v>
+      </c>
+      <c r="F19" s="14">
+        <v>5.5561707913536704</v>
+      </c>
+      <c r="G19" s="14">
+        <v>5.07140171910115</v>
+      </c>
+      <c r="H19" s="14">
+        <v>5.55437253008132</v>
+      </c>
+      <c r="I19" s="14">
+        <v>4.6463960848886598</v>
+      </c>
+      <c r="J19" s="19">
+        <v>6.9150549462011197</v>
+      </c>
+      <c r="K19" s="19">
+        <v>6.8265306341093401</v>
+      </c>
+      <c r="L19" s="19">
+        <v>6.9150549487461301</v>
+      </c>
+      <c r="M19" s="19">
+        <v>6.6431544419428796</v>
+      </c>
+      <c r="N19" s="19">
+        <v>6.9149799101042504</v>
+      </c>
+      <c r="O19" s="19">
+        <v>5.9718947701932601</v>
+      </c>
+      <c r="P19" s="19">
+        <v>6.7055308356992498</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>4.3518195824444499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14">
+        <v>126.000574769805</v>
+      </c>
+      <c r="C20" s="14">
+        <v>124.563839659146</v>
+      </c>
+      <c r="D20" s="14">
+        <v>126.000574768577</v>
+      </c>
+      <c r="E20" s="14">
+        <v>122.28313374213501</v>
+      </c>
+      <c r="F20" s="14">
+        <v>126.000556402143</v>
+      </c>
+      <c r="G20" s="14">
+        <v>115.007162727957</v>
+      </c>
+      <c r="H20" s="14">
+        <v>125.959776172489</v>
+      </c>
+      <c r="I20" s="14">
+        <v>105.369059725768</v>
+      </c>
+      <c r="J20" s="19">
+        <v>156.81677246650199</v>
+      </c>
+      <c r="K20" s="19">
+        <v>154.809254519783</v>
+      </c>
+      <c r="L20" s="19">
+        <v>156.81677252421699</v>
+      </c>
+      <c r="M20" s="19">
+        <v>150.65072464164501</v>
+      </c>
+      <c r="N20" s="19">
+        <v>156.81507082875399</v>
+      </c>
+      <c r="O20" s="19">
+        <v>135.42817384058</v>
+      </c>
+      <c r="P20" s="19">
+        <v>152.065270848881</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>98.688774938855502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14">
+        <v>136.59029075078399</v>
+      </c>
+      <c r="C21" s="14">
+        <v>136.03253520395401</v>
+      </c>
+      <c r="D21" s="14">
+        <v>136.59029075166799</v>
+      </c>
+      <c r="E21" s="14">
+        <v>135.14015692739699</v>
+      </c>
+      <c r="F21" s="14">
+        <v>136.590304490585</v>
+      </c>
+      <c r="G21" s="14">
+        <v>132.131065750636</v>
+      </c>
+      <c r="H21" s="14">
+        <v>136.62271963441901</v>
+      </c>
+      <c r="I21" s="14">
+        <v>148.52735797716801</v>
+      </c>
+      <c r="J21" s="19">
+        <v>153.60327334943401</v>
+      </c>
+      <c r="K21" s="19">
+        <v>151.83139271894501</v>
+      </c>
+      <c r="L21" s="19">
+        <v>153.60327334729001</v>
+      </c>
+      <c r="M21" s="19">
+        <v>148.46700777623099</v>
+      </c>
+      <c r="N21" s="19">
+        <v>153.60331996409599</v>
+      </c>
+      <c r="O21" s="19">
+        <v>136.73350915861801</v>
+      </c>
+      <c r="P21" s="19">
+        <v>153.73671114156201</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>115.767455537597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="14">
+        <v>159.988512953602</v>
+      </c>
+      <c r="C22" s="14">
+        <v>159.875303687756</v>
+      </c>
+      <c r="D22" s="14">
+        <v>159.98851295427301</v>
+      </c>
+      <c r="E22" s="14">
+        <v>159.688553400182</v>
+      </c>
+      <c r="F22" s="14">
+        <v>159.98852236402701</v>
+      </c>
+      <c r="G22" s="14">
+        <v>159.036796685745</v>
+      </c>
+      <c r="H22" s="14">
+        <v>160.010561818648</v>
+      </c>
+      <c r="I22" s="14">
+        <v>165.234821053514</v>
+      </c>
+      <c r="J22" s="19">
+        <v>155.05611912828499</v>
+      </c>
+      <c r="K22" s="19">
+        <v>153.661079418127</v>
+      </c>
+      <c r="L22" s="19">
+        <v>155.05611912805699</v>
+      </c>
+      <c r="M22" s="19">
+        <v>151.141900813787</v>
+      </c>
+      <c r="N22" s="19">
+        <v>155.056113612221</v>
+      </c>
+      <c r="O22" s="19">
+        <v>142.4225216646</v>
+      </c>
+      <c r="P22" s="19">
+        <v>155.04368478017801</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>127.57782339611499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14">
+        <v>6.8037073176466496</v>
+      </c>
+      <c r="C23" s="14">
+        <v>6.7929470494892401</v>
+      </c>
+      <c r="D23" s="14">
+        <v>6.8037073176407104</v>
+      </c>
+      <c r="E23" s="14">
+        <v>6.7686914852020204</v>
+      </c>
+      <c r="F23" s="14">
+        <v>6.8037072258875702</v>
+      </c>
+      <c r="G23" s="14">
+        <v>6.67323660622072</v>
+      </c>
+      <c r="H23" s="14">
+        <v>6.80353783005451</v>
+      </c>
+      <c r="I23" s="14">
+        <v>6.5436288037438004</v>
+      </c>
+      <c r="J23" s="19">
+        <v>7.4032920407540104</v>
+      </c>
+      <c r="K23" s="19">
+        <v>7.3484906631913596</v>
+      </c>
+      <c r="L23" s="19">
+        <v>7.4032920410795802</v>
+      </c>
+      <c r="M23" s="19">
+        <v>7.2334831541394804</v>
+      </c>
+      <c r="N23" s="19">
+        <v>7.4032876060201804</v>
+      </c>
+      <c r="O23" s="19">
+        <v>6.7736490882311697</v>
+      </c>
+      <c r="P23" s="19">
+        <v>7.3831955919831698</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>11.9644335506229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="14">
+        <v>242.60002139155799</v>
+      </c>
+      <c r="C24" s="14">
+        <v>242.21634214680299</v>
+      </c>
+      <c r="D24" s="14">
+        <v>242.60002139134599</v>
+      </c>
+      <c r="E24" s="14">
+        <v>241.35146067259899</v>
+      </c>
+      <c r="F24" s="14">
+        <v>242.60001811970201</v>
+      </c>
+      <c r="G24" s="14">
+        <v>237.947822831987</v>
+      </c>
+      <c r="H24" s="14">
+        <v>242.593977966767</v>
+      </c>
+      <c r="I24" s="14">
+        <v>233.32639304592601</v>
+      </c>
+      <c r="J24" s="19">
+        <v>263.97943409419202</v>
+      </c>
+      <c r="K24" s="19">
+        <v>262.02537952536801</v>
+      </c>
+      <c r="L24" s="19">
+        <v>263.97943410580098</v>
+      </c>
+      <c r="M24" s="19">
+        <v>257.92455289459701</v>
+      </c>
+      <c r="N24" s="19">
+        <v>263.97927596473801</v>
+      </c>
+      <c r="O24" s="19">
+        <v>241.52823409108501</v>
+      </c>
+      <c r="P24" s="19">
+        <v>263.26285434228902</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>426.61621081063601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14">
+        <v>81.012967137778105</v>
+      </c>
+      <c r="C25" s="14">
+        <v>80.982482782248496</v>
+      </c>
+      <c r="D25" s="14">
+        <v>81.012967137698396</v>
+      </c>
+      <c r="E25" s="14">
+        <v>80.958635587419906</v>
+      </c>
+      <c r="F25" s="14">
+        <v>81.012966085963498</v>
+      </c>
+      <c r="G25" s="14">
+        <v>80.955620439678498</v>
+      </c>
+      <c r="H25" s="14">
+        <v>81.0107570673064</v>
+      </c>
+      <c r="I25" s="14">
+        <v>79.530080019025704</v>
+      </c>
+      <c r="J25" s="19">
+        <v>85.402920104274898</v>
+      </c>
+      <c r="K25" s="19">
+        <v>85.362477726632207</v>
+      </c>
+      <c r="L25" s="19">
+        <v>85.402920104238405</v>
+      </c>
+      <c r="M25" s="19">
+        <v>85.315831267527997</v>
+      </c>
+      <c r="N25" s="19">
+        <v>85.4029199229022</v>
+      </c>
+      <c r="O25" s="19">
+        <v>85.230326125061396</v>
+      </c>
+      <c r="P25" s="19">
+        <v>85.402998102265897</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>84.550779234405496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="14">
+        <v>84.951269579468601</v>
+      </c>
+      <c r="C26" s="14">
+        <v>84.816916586561803</v>
+      </c>
+      <c r="D26" s="14">
+        <v>84.951269579394506</v>
+      </c>
+      <c r="E26" s="14">
+        <v>84.5140609691219</v>
+      </c>
+      <c r="F26" s="14">
+        <v>84.951268433762294</v>
+      </c>
+      <c r="G26" s="14">
+        <v>83.322208824632497</v>
+      </c>
+      <c r="H26" s="14">
+        <v>84.949153352908894</v>
+      </c>
+      <c r="I26" s="14">
+        <v>81.703922373764499</v>
+      </c>
+      <c r="J26" s="19">
+        <v>92.437700295897798</v>
+      </c>
+      <c r="K26" s="19">
+        <v>91.753448845725103</v>
+      </c>
+      <c r="L26" s="19">
+        <v>92.437700299962898</v>
+      </c>
+      <c r="M26" s="19">
+        <v>90.317462044854096</v>
+      </c>
+      <c r="N26" s="19">
+        <v>92.437644923693895</v>
+      </c>
+      <c r="O26" s="19">
+        <v>84.575961731711402</v>
+      </c>
+      <c r="P26" s="19">
+        <v>92.186775504836703</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>149.388233866028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14">
+        <v>38.996410208112998</v>
+      </c>
+      <c r="C27" s="14">
+        <v>38.770239194692898</v>
+      </c>
+      <c r="D27" s="14">
+        <v>38.996410207837201</v>
+      </c>
+      <c r="E27" s="14">
+        <v>38.215235750586601</v>
+      </c>
+      <c r="F27" s="14">
+        <v>38.996406258497501</v>
+      </c>
+      <c r="G27" s="14">
+        <v>36.057579160374502</v>
+      </c>
+      <c r="H27" s="14">
+        <v>38.987666727370303</v>
+      </c>
+      <c r="I27" s="14">
+        <v>28.845136088199101</v>
+      </c>
+      <c r="J27" s="19">
+        <v>45.314663030925999</v>
+      </c>
+      <c r="K27" s="19">
+        <v>44.763722306154499</v>
+      </c>
+      <c r="L27" s="19">
+        <v>45.314663029553998</v>
+      </c>
+      <c r="M27" s="19">
+        <v>43.392352049223597</v>
+      </c>
+      <c r="N27" s="19">
+        <v>45.314701333061898</v>
+      </c>
+      <c r="O27" s="19">
+        <v>37.245036734272901</v>
+      </c>
+      <c r="P27" s="19">
+        <v>45.421271831135599</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>28.9507996373864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="14">
+        <v>254.07753186029899</v>
+      </c>
+      <c r="C28" s="14">
+        <v>254.34165614022999</v>
+      </c>
+      <c r="D28" s="14">
+        <v>254.07753185993701</v>
+      </c>
+      <c r="E28" s="14">
+        <v>252.50685106447401</v>
+      </c>
+      <c r="F28" s="14">
+        <v>254.07752586326501</v>
+      </c>
+      <c r="G28" s="14">
+        <v>238.573845359215</v>
+      </c>
+      <c r="H28" s="14">
+        <v>254.063906022536</v>
+      </c>
+      <c r="I28" s="14">
+        <v>202.42618544518999</v>
+      </c>
+      <c r="J28" s="19">
+        <v>231.568652576517</v>
+      </c>
+      <c r="K28" s="19">
+        <v>229.559734624931</v>
+      </c>
+      <c r="L28" s="19">
+        <v>231.56865258624001</v>
+      </c>
+      <c r="M28" s="19">
+        <v>224.98250591103701</v>
+      </c>
+      <c r="N28" s="19">
+        <v>231.56836720365101</v>
+      </c>
+      <c r="O28" s="19">
+        <v>209.34101232049301</v>
+      </c>
+      <c r="P28" s="19">
+        <v>230.77313274387899</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>174.562049182793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="14">
+        <v>60.543060016653499</v>
+      </c>
+      <c r="C29" s="14">
+        <v>63.668144771070502</v>
+      </c>
+      <c r="D29" s="14">
+        <v>60.5430600159794</v>
+      </c>
+      <c r="E29" s="14">
+        <v>67.066831112686501</v>
+      </c>
+      <c r="F29" s="14">
+        <v>60.543049094638299</v>
+      </c>
+      <c r="G29" s="14">
+        <v>67.767458566362905</v>
+      </c>
+      <c r="H29" s="14">
+        <v>60.518060344781702</v>
+      </c>
+      <c r="I29" s="14">
+        <v>52.580561037473402</v>
+      </c>
+      <c r="J29" s="19">
+        <v>68.440157838019005</v>
+      </c>
+      <c r="K29" s="19">
+        <v>68.208982759813495</v>
+      </c>
+      <c r="L29" s="19">
+        <v>68.440157814238205</v>
+      </c>
+      <c r="M29" s="19">
+        <v>67.758089595997305</v>
+      </c>
+      <c r="N29" s="19">
+        <v>68.440855778712304</v>
+      </c>
+      <c r="O29" s="19">
+        <v>67.328215529178195</v>
+      </c>
+      <c r="P29" s="19">
+        <v>70.363746464076797</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>67.170035793414698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="14">
+        <v>85.231850275624794</v>
+      </c>
+      <c r="C30" s="14">
+        <v>83.114689663717897</v>
+      </c>
+      <c r="D30" s="14">
+        <v>85.231850274675693</v>
+      </c>
+      <c r="E30" s="14">
+        <v>80.3947054371191</v>
+      </c>
+      <c r="F30" s="14">
+        <v>85.231834899732604</v>
+      </c>
+      <c r="G30" s="14">
+        <v>74.422352775917901</v>
+      </c>
+      <c r="H30" s="14">
+        <v>85.196656014064104</v>
+      </c>
+      <c r="I30" s="14">
+        <v>55.935343923885</v>
+      </c>
+      <c r="J30" s="19">
+        <v>77.750637681132304</v>
+      </c>
+      <c r="K30" s="19">
+        <v>76.841717171041495</v>
+      </c>
+      <c r="L30" s="19">
+        <v>77.750637654116403</v>
+      </c>
+      <c r="M30" s="19">
+        <v>75.2016479404043</v>
+      </c>
+      <c r="N30" s="19">
+        <v>77.7514305684617</v>
+      </c>
+      <c r="O30" s="19">
+        <v>72.616109046501904</v>
+      </c>
+      <c r="P30" s="19">
+        <v>79.935907952807398</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>71.175602407496299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A31" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3.0338266645203702</v>
+      </c>
+      <c r="C31" s="14">
+        <v>3.23438847660044</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3.0338266644908098</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3.4578224114109002</v>
+      </c>
+      <c r="F31" s="14">
+        <v>3.0338262222660299</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3.5497558158024898</v>
+      </c>
+      <c r="H31" s="14">
+        <v>3.0328443208077398</v>
+      </c>
+      <c r="I31" s="14">
+        <v>3.3574363981575601</v>
+      </c>
+      <c r="J31" s="19">
+        <v>4.6790247314111602</v>
+      </c>
+      <c r="K31" s="19">
+        <v>4.6579756867582702</v>
+      </c>
+      <c r="L31" s="19">
+        <v>4.67902473313322</v>
+      </c>
+      <c r="M31" s="19">
+        <v>4.60109083124647</v>
+      </c>
+      <c r="N31" s="19">
+        <v>4.6789739587483599</v>
+      </c>
+      <c r="O31" s="19">
+        <v>4.2562677313361101</v>
+      </c>
+      <c r="P31" s="19">
+        <v>4.5372516721235003</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>3.15695195739894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="14">
+        <v>171.36677380888599</v>
+      </c>
+      <c r="C32" s="14">
+        <v>166.14081710521901</v>
+      </c>
+      <c r="D32" s="14">
+        <v>171.36677380576501</v>
+      </c>
+      <c r="E32" s="14">
+        <v>158.40324180989401</v>
+      </c>
+      <c r="F32" s="14">
+        <v>171.36672553790299</v>
+      </c>
+      <c r="G32" s="14">
+        <v>138.356649129153</v>
+      </c>
+      <c r="H32" s="14">
+        <v>171.257605686387</v>
+      </c>
+      <c r="I32" s="14">
+        <v>83.187673573680399</v>
+      </c>
+      <c r="J32" s="19">
+        <v>181.65308944571601</v>
+      </c>
+      <c r="K32" s="19">
+        <v>177.346788465549</v>
+      </c>
+      <c r="L32" s="19">
+        <v>181.65308937709699</v>
+      </c>
+      <c r="M32" s="19">
+        <v>168.24440207392999</v>
+      </c>
+      <c r="N32" s="19">
+        <v>181.65509545548201</v>
+      </c>
+      <c r="O32" s="19">
+        <v>139.44452124474401</v>
+      </c>
+      <c r="P32" s="19">
+        <v>187.198031220975</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>106.240911785154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="14">
+        <v>139.008955911009</v>
+      </c>
+      <c r="C33" s="14">
+        <v>133.768835381988</v>
+      </c>
+      <c r="D33" s="14">
+        <v>139.00895590830001</v>
+      </c>
+      <c r="E33" s="14">
+        <v>126.573269000648</v>
+      </c>
+      <c r="F33" s="14">
+        <v>139.008914035034</v>
+      </c>
+      <c r="G33" s="14">
+        <v>109.848369361698</v>
+      </c>
+      <c r="H33" s="14">
+        <v>138.91424864021499</v>
+      </c>
+      <c r="I33" s="14">
+        <v>65.690734525407507</v>
+      </c>
+      <c r="J33" s="19">
+        <v>148.55596472286501</v>
+      </c>
+      <c r="K33" s="19">
+        <v>144.914087811217</v>
+      </c>
+      <c r="L33" s="19">
+        <v>148.555965727184</v>
+      </c>
+      <c r="M33" s="19">
+        <v>137.601636089631</v>
+      </c>
+      <c r="N33" s="19">
+        <v>148.52648045538501</v>
+      </c>
+      <c r="O33" s="19">
+        <v>117.26870673247301</v>
+      </c>
+      <c r="P33" s="19">
+        <v>65.229405325315099</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>1.2552807013972499E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="13">
+        <v>24.607005928867199</v>
+      </c>
+      <c r="C34" s="13">
+        <v>24.127937311018599</v>
+      </c>
+      <c r="D34" s="13">
+        <v>24.607005928495401</v>
+      </c>
+      <c r="E34" s="13">
+        <v>23.422860842366401</v>
+      </c>
+      <c r="F34" s="13">
+        <v>24.6070000563011</v>
+      </c>
+      <c r="G34" s="13">
+        <v>21.299571926881701</v>
+      </c>
+      <c r="H34" s="13">
+        <v>24.5936231580339</v>
+      </c>
+      <c r="I34" s="13">
+        <v>12.2370335910169</v>
+      </c>
+      <c r="J34" s="18">
+        <v>23.451962771577499</v>
+      </c>
+      <c r="K34" s="18">
+        <v>23.040458665324</v>
+      </c>
+      <c r="L34" s="18">
+        <v>23.451962926340599</v>
+      </c>
+      <c r="M34" s="18">
+        <v>22.2034807825742</v>
+      </c>
+      <c r="N34" s="18">
+        <v>23.4474199437702</v>
+      </c>
+      <c r="O34" s="18">
+        <v>20.002090417123799</v>
+      </c>
+      <c r="P34" s="18">
+        <v>10.439545370606099</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>2.3136938119943701E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="13">
+        <v>55.039710978418903</v>
+      </c>
+      <c r="C35" s="13">
+        <v>53.672523620671598</v>
+      </c>
+      <c r="D35" s="13">
+        <v>55.039710977806102</v>
+      </c>
+      <c r="E35" s="13">
+        <v>51.916054117619296</v>
+      </c>
+      <c r="F35" s="13">
+        <v>55.039701049212198</v>
+      </c>
+      <c r="G35" s="13">
+        <v>48.0593202408972</v>
+      </c>
+      <c r="H35" s="13">
+        <v>55.016983770477999</v>
+      </c>
+      <c r="I35" s="13">
+        <v>36.121064520988703</v>
+      </c>
+      <c r="J35" s="18">
+        <v>50.208608783202003</v>
+      </c>
+      <c r="K35" s="18">
+        <v>49.621660101271701</v>
+      </c>
+      <c r="L35" s="18">
+        <v>50.208608765756097</v>
+      </c>
+      <c r="M35" s="18">
+        <v>48.5625614644715</v>
+      </c>
+      <c r="N35" s="18">
+        <v>50.209120801764399</v>
+      </c>
+      <c r="O35" s="18">
+        <v>46.892911996770799</v>
+      </c>
+      <c r="P35" s="18">
+        <v>51.619778947568697</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>45.962683815439902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="13">
+        <v>199.842380951069</v>
+      </c>
+      <c r="C36" s="13">
+        <v>196.513558284613</v>
+      </c>
+      <c r="D36" s="13">
+        <v>199.842380951379</v>
+      </c>
+      <c r="E36" s="13">
+        <v>190.896880758816</v>
+      </c>
+      <c r="F36" s="13">
+        <v>199.84238609033901</v>
+      </c>
+      <c r="G36" s="13">
+        <v>175.92342844254799</v>
+      </c>
+      <c r="H36" s="13">
+        <v>199.854058363338</v>
+      </c>
+      <c r="I36" s="13">
+        <v>159.13916410920601</v>
+      </c>
+      <c r="J36" s="18">
+        <v>167.65951993814301</v>
+      </c>
+      <c r="K36" s="18">
+        <v>165.68135038050099</v>
+      </c>
+      <c r="L36" s="18">
+        <v>167.65951993041401</v>
+      </c>
+      <c r="M36" s="18">
+        <v>160.91420564027999</v>
+      </c>
+      <c r="N36" s="18">
+        <v>167.659746792693</v>
+      </c>
+      <c r="O36" s="18">
+        <v>141.282989120802</v>
+      </c>
+      <c r="P36" s="18">
+        <v>168.29363794391901</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>110.693499969153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="15">
+        <v>11.2769503738614</v>
+      </c>
+      <c r="C37" s="15">
+        <v>11.225746998918501</v>
+      </c>
+      <c r="D37" s="15">
+        <v>11.2769503738614</v>
+      </c>
+      <c r="E37" s="15">
+        <v>11.088160626663299</v>
+      </c>
+      <c r="F37" s="15">
+        <v>11.2769503738614</v>
+      </c>
+      <c r="G37" s="15">
+        <v>10.2787223544392</v>
+      </c>
+      <c r="H37" s="15">
+        <v>11.2769503738614</v>
+      </c>
+      <c r="I37" s="15">
+        <v>6.0784731892067301</v>
+      </c>
+      <c r="J37" s="20">
+        <v>9.2332789654662299</v>
+      </c>
+      <c r="K37" s="20">
+        <v>8.8889669460867609</v>
+      </c>
+      <c r="L37" s="20">
+        <v>9.2332789654662299</v>
+      </c>
+      <c r="M37" s="20">
+        <v>7.8248233443069504</v>
+      </c>
+      <c r="N37" s="20">
+        <v>9.2332789654662299</v>
+      </c>
+      <c r="O37" s="20">
+        <v>0.83581460371685701</v>
+      </c>
+      <c r="P37" s="20">
+        <v>9.2332789654662299</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>9.6564036797557307E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="14">
+        <v>9.8370059315476197E-3</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1.11508539252101E-2</v>
+      </c>
+      <c r="D38" s="14">
+        <v>9.8370059312513601E-3</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1.22115332081552E-2</v>
+      </c>
+      <c r="F38" s="14">
+        <v>9.8370016038664809E-3</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1.23860198971218E-2</v>
+      </c>
+      <c r="H38" s="14">
+        <v>9.8273503883871804E-3</v>
+      </c>
+      <c r="I38" s="14">
+        <v>5.7403452451294298E-3</v>
+      </c>
+      <c r="J38" s="19">
+        <v>3.1368307735542202E-2</v>
+      </c>
+      <c r="K38" s="19">
+        <v>3.2432466911688503E-2</v>
+      </c>
+      <c r="L38" s="19">
+        <v>3.1368307752266102E-2</v>
+      </c>
+      <c r="M38" s="19">
+        <v>3.4693464102023799E-2</v>
+      </c>
+      <c r="N38" s="19">
+        <v>3.1367814929714501E-2</v>
+      </c>
+      <c r="O38" s="19">
+        <v>4.7893243496713402E-2</v>
+      </c>
+      <c r="P38" s="19">
+        <v>3.00096088839325E-2</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>4.46633941230761E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A39" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="14">
+        <v>5.8048981500521002</v>
+      </c>
+      <c r="C39" s="14">
+        <v>6.1022357282937403</v>
+      </c>
+      <c r="D39" s="14">
+        <v>5.8048981499817502</v>
+      </c>
+      <c r="E39" s="14">
+        <v>6.4260879431981097</v>
+      </c>
+      <c r="F39" s="14">
+        <v>5.8048970274773</v>
+      </c>
+      <c r="G39" s="14">
+        <v>6.4929775660025397</v>
+      </c>
+      <c r="H39" s="14">
+        <v>5.8023428744462704</v>
+      </c>
+      <c r="I39" s="14">
+        <v>4.9491695590134803</v>
+      </c>
+      <c r="J39" s="19">
+        <v>6.9176633113396004</v>
+      </c>
+      <c r="K39" s="19">
+        <v>6.8910322589244997</v>
+      </c>
+      <c r="L39" s="19">
+        <v>6.9176633089329798</v>
+      </c>
+      <c r="M39" s="19">
+        <v>6.8417386013762602</v>
+      </c>
+      <c r="N39" s="19">
+        <v>6.9177338417620797</v>
+      </c>
+      <c r="O39" s="19">
+        <v>6.7915195026998703</v>
+      </c>
+      <c r="P39" s="19">
+        <v>7.1120986170632801</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>6.7215416191293897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A40" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1.09489523075635</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1.08688676410829</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.09489523075635</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1.06840508277359</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1.09489523075635</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1.0023323978002701</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1.09489523075635</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0.90385655354334804</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0.96055984792950699</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0.95352929326790503</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0.96055984792950699</v>
+      </c>
+      <c r="M40" s="19">
+        <v>0.93730465567830001</v>
+      </c>
+      <c r="N40" s="19">
+        <v>0.96055984792950699</v>
+      </c>
+      <c r="O40" s="19">
+        <v>0.87930391083022796</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.96055984792950699</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>0.79286720473332795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A41" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="14">
+        <v>94.370949593031099</v>
+      </c>
+      <c r="C41" s="14">
+        <v>93.944288930696402</v>
+      </c>
+      <c r="D41" s="14">
+        <v>94.370949592184104</v>
+      </c>
+      <c r="E41" s="14">
+        <v>92.885012038361694</v>
+      </c>
+      <c r="F41" s="14">
+        <v>94.370937259784995</v>
+      </c>
+      <c r="G41" s="14">
+        <v>88.589398559727798</v>
+      </c>
+      <c r="H41" s="14">
+        <v>94.3437961561566</v>
+      </c>
+      <c r="I41" s="14">
+        <v>76.846753889479203</v>
+      </c>
+      <c r="J41" s="19">
+        <v>123.646482458248</v>
+      </c>
+      <c r="K41" s="19">
+        <v>122.351802371901</v>
+      </c>
+      <c r="L41" s="19">
+        <v>123.646482454137</v>
+      </c>
+      <c r="M41" s="19">
+        <v>119.171433239462</v>
+      </c>
+      <c r="N41" s="19">
+        <v>123.646594684416</v>
+      </c>
+      <c r="O41" s="19">
+        <v>105.026673290829</v>
+      </c>
+      <c r="P41" s="19">
+        <v>123.962077535326</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>81.717560040882105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A42" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="13">
+        <v>30.877212553486501</v>
+      </c>
+      <c r="C42" s="13">
+        <v>33.904598810014797</v>
+      </c>
+      <c r="D42" s="13">
+        <v>30.877212552003101</v>
+      </c>
+      <c r="E42" s="13">
+        <v>35.211756186032297</v>
+      </c>
+      <c r="F42" s="13">
+        <v>30.877189802462699</v>
+      </c>
+      <c r="G42" s="13">
+        <v>28.997936674407399</v>
+      </c>
+      <c r="H42" s="13">
+        <v>30.8257266127085</v>
+      </c>
+      <c r="I42" s="13">
+        <v>3.3234279878936701</v>
+      </c>
+      <c r="J42" s="18">
+        <v>53.467694786406902</v>
+      </c>
+      <c r="K42" s="18">
+        <v>52.071773161100097</v>
+      </c>
+      <c r="L42" s="18">
+        <v>53.467695131742801</v>
+      </c>
+      <c r="M42" s="18">
+        <v>46.9269902941966</v>
+      </c>
+      <c r="N42" s="18">
+        <v>53.457557183016597</v>
+      </c>
+      <c r="O42" s="18">
+        <v>6.4117368061087898</v>
+      </c>
+      <c r="P42" s="18">
+        <v>24.058524937553099</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>9.3455070267133093E-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="14.5" thickBot="1">
+      <c r="A43" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="24">
+        <f>SUM(B4:B42)</f>
+        <v>15715.361470929711</v>
+      </c>
+      <c r="C43" s="14">
+        <f t="shared" ref="C43:Q43" si="0">SUM(C4:C42)</f>
+        <v>15634.040722101869</v>
+      </c>
+      <c r="D43" s="24">
+        <f t="shared" si="0"/>
+        <v>15715.361470863096</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="0"/>
+        <v>15411.554624000592</v>
+      </c>
+      <c r="F43" s="24">
+        <f t="shared" si="0"/>
+        <v>15715.360503117838</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="0"/>
+        <v>14492.932862341111</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="0"/>
+        <v>15713.211202413187</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="0"/>
+        <v>12009.119928698468</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" si="0"/>
+        <v>16479.9495724929</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="0"/>
+        <v>16299.946448089773</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="0"/>
+        <v>16479.949573846439</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" si="0"/>
+        <v>15853.767029142542</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="0"/>
+        <v>16479.90966408484</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="0"/>
+        <v>13882.686714723282</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="0"/>
+        <v>16365.614360839514</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="0"/>
+        <v>11259.865573639498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="29">
+        <f>B43-C43</f>
+        <v>81.320748827842181</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29">
+        <f>D43-E43</f>
+        <v>303.80684686250424</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29">
+        <f>F43-G43</f>
+        <v>1222.4276407767265</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29">
+        <f>H43-I43</f>
+        <v>3704.0912737147191</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29">
+        <f>J43-K43</f>
+        <v>180.003124403127</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29">
+        <f>L43-M43</f>
+        <v>626.18254470389729</v>
+      </c>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29">
+        <f>N43-O43</f>
+        <v>2597.2229493615578</v>
+      </c>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29">
+        <f>P43-Q43</f>
+        <v>5105.7487872000165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77B64E-E7E4-47B5-B5E1-F62ACF4A4475}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5479,7 +7839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332B991-BF97-495C-B52B-FC136E4AD6D3}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -6006,7 +8366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D6B949-7D9C-4982-896C-D173816386F7}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
@@ -9211,7 +11571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A080A2-4E45-4272-8228-56E9FA94A49E}">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -10938,7 +13298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AA8E17-1C99-4C96-98EA-1F8EA6066873}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
